--- a/etc/프로젝트관리_m4.xlsx
+++ b/etc/프로젝트관리_m4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ai\lecNote\1st_project\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA1F74F-1CBB-4D55-8D11-7525A63CA534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DBD5EF-CB3A-4D8B-A7E6-07F50B67900F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="8" r:id="rId1"/>
@@ -528,41 +528,41 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -910,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -933,41 +933,41 @@
     <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
@@ -1012,32 +1012,32 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="21"/>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34" t="s">
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="32"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="18"/>
       <c r="E7" s="24" t="s">
         <v>24</v>
@@ -1075,11 +1075,13 @@
       <c r="P7" s="19"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1094,12 +1096,10 @@
       <c r="P8" s="12"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="8" t="s">
-        <v>0</v>
-      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1118,9 +1118,11 @@
     <row r="10" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1137,11 +1139,9 @@
     <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="35" t="s">
-        <v>3</v>
-      </c>
+      <c r="C11" s="33"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="20"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1158,9 +1158,9 @@
     <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="35"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1177,9 +1177,11 @@
     <row r="13" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="26" t="s">
+        <v>4</v>
+      </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1196,11 +1198,9 @@
     <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="28" t="s">
-        <v>4</v>
-      </c>
+      <c r="C14" s="26"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="20"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1217,9 +1217,9 @@
     <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="28"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1233,11 +1233,13 @@
       <c r="P15" s="12"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1252,14 +1254,14 @@
       <c r="P16" s="12"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1276,11 +1278,9 @@
     <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="27" t="s">
-        <v>9</v>
-      </c>
+      <c r="C18" s="35"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="20"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1297,9 +1297,9 @@
     <row r="19" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="27"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1316,9 +1316,11 @@
     <row r="20" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="35" t="s">
+        <v>10</v>
+      </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1335,11 +1337,9 @@
     <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="27" t="s">
-        <v>10</v>
-      </c>
+      <c r="C21" s="35"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="20"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1356,9 +1356,9 @@
     <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="27"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1375,9 +1375,11 @@
     <row r="23" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1394,11 +1396,9 @@
     <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="27" t="s">
-        <v>11</v>
-      </c>
+      <c r="C24" s="35"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="20"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1408,16 +1408,16 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" s="7"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="27"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1427,16 +1427,18 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="7"/>
+      <c r="O25" s="2"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1453,11 +1455,9 @@
     <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="27" t="s">
-        <v>5</v>
-      </c>
+      <c r="C27" s="35"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="20"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1474,9 +1474,9 @@
     <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="27"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1490,11 +1490,13 @@
       <c r="P28" s="12"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1509,19 +1511,19 @@
       <c r="P29" s="12"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="2"/>
+      <c r="C30" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="6"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -1533,16 +1535,14 @@
     <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="37" t="s">
-        <v>12</v>
-      </c>
+      <c r="C31" s="36"/>
       <c r="D31" s="6"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -1554,7 +1554,7 @@
     <row r="32" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="37"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1573,14 +1573,16 @@
     <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="6"/>
+      <c r="C33" s="36" t="s">
+        <v>13</v>
+      </c>
       <c r="D33" s="6"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -1592,16 +1594,14 @@
     <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="37" t="s">
-        <v>13</v>
-      </c>
+      <c r="C34" s="36"/>
       <c r="D34" s="6"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -1613,7 +1613,7 @@
     <row r="35" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="37"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1629,11 +1629,13 @@
       <c r="P35" s="12"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="C36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1648,23 +1650,21 @@
       <c r="P36" s="12"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2"/>
+      <c r="C37" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="6"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
       <c r="O37" s="2"/>
       <c r="P37" s="12"/>
       <c r="Q37" s="2"/>
@@ -1672,18 +1672,18 @@
     <row r="38" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="36" t="s">
-        <v>14</v>
-      </c>
+      <c r="C38" s="34"/>
       <c r="D38" s="6"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="2"/>
@@ -1691,7 +1691,7 @@
     <row r="39" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="36"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1710,7 +1710,9 @@
     <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="6"/>
+      <c r="C40" s="34" t="s">
+        <v>17</v>
+      </c>
       <c r="D40" s="6"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1718,10 +1720,10 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
       <c r="O40" s="2"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="2"/>
@@ -1729,9 +1731,7 @@
     <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="36" t="s">
-        <v>17</v>
-      </c>
+      <c r="C41" s="34"/>
       <c r="D41" s="6"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1739,10 +1739,10 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="2"/>
@@ -1750,7 +1750,7 @@
     <row r="42" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="36"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1769,7 +1769,9 @@
     <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="6"/>
+      <c r="C43" s="34" t="s">
+        <v>18</v>
+      </c>
       <c r="D43" s="6"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -1777,10 +1779,10 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
       <c r="O43" s="2"/>
       <c r="P43" s="12"/>
       <c r="Q43" s="2"/>
@@ -1788,9 +1790,7 @@
     <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="36" t="s">
-        <v>18</v>
-      </c>
+      <c r="C44" s="34"/>
       <c r="D44" s="6"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1798,10 +1798,10 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="2"/>
@@ -1809,7 +1809,7 @@
     <row r="45" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="36"/>
+      <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -1828,7 +1828,9 @@
     <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="6"/>
+      <c r="C46" s="34" t="s">
+        <v>19</v>
+      </c>
       <c r="D46" s="6"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -1836,10 +1838,10 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
       <c r="O46" s="2"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="2"/>
@@ -1847,9 +1849,7 @@
     <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="36" t="s">
-        <v>19</v>
-      </c>
+      <c r="C47" s="34"/>
       <c r="D47" s="6"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -1857,10 +1857,10 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="2"/>
@@ -1868,7 +1868,7 @@
     <row r="48" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="36"/>
+      <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -1887,7 +1887,9 @@
     <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="6"/>
+      <c r="C49" s="34" t="s">
+        <v>16</v>
+      </c>
       <c r="D49" s="6"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -1895,10 +1897,10 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
       <c r="O49" s="2"/>
       <c r="P49" s="12"/>
       <c r="Q49" s="2"/>
@@ -1906,9 +1908,7 @@
     <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="36" t="s">
-        <v>16</v>
-      </c>
+      <c r="C50" s="34"/>
       <c r="D50" s="6"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -1916,10 +1916,10 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="12"/>
       <c r="Q50" s="2"/>
@@ -1927,14 +1927,14 @@
     <row r="51" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="36"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
+      <c r="J51"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -1943,31 +1943,31 @@
       <c r="P51" s="12"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+      <c r="C52" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="3"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-      <c r="J52"/>
+      <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
       <c r="P52" s="12"/>
       <c r="Q52" s="2"/>
     </row>
     <row r="53" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="26" t="s">
-        <v>15</v>
-      </c>
+      <c r="C53" s="37"/>
       <c r="D53" s="3"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -1978,126 +1978,107 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" s="12"/>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="14"/>
       <c r="Q54" s="2"/>
     </row>
-    <row r="55" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="14"/>
+    <row r="55" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
     </row>
-    <row r="56" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="N56" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O56" s="22" t="s">
+        <v>2</v>
+      </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
     </row>
-    <row r="57" spans="1:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
       <c r="M57" s="2"/>
-      <c r="N57" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="O57" s="22" t="s">
-        <v>2</v>
-      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="K6:O6"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/etc/프로젝트관리_m4.xlsx
+++ b/etc/프로젝트관리_m4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ai\lecNote\1st_project\etc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ai\lecNote\1st_Project\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA1F74F-1CBB-4D55-8D11-7525A63CA534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37DC31F-57E9-418E-926D-439A6F746C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="8" r:id="rId1"/>
@@ -528,41 +528,41 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -933,41 +933,41 @@
     <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
@@ -1012,32 +1012,32 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="21"/>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34" t="s">
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="32"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="18"/>
       <c r="E7" s="24" t="s">
         <v>24</v>
@@ -1137,7 +1137,7 @@
     <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="33" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="6"/>
@@ -1158,7 +1158,7 @@
     <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="35"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="6"/>
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
@@ -1196,7 +1196,7 @@
     <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="6"/>
@@ -1217,7 +1217,7 @@
     <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="28"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="6"/>
       <c r="E15" s="4"/>
       <c r="F15" s="2"/>
@@ -1276,7 +1276,7 @@
     <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="35" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="6"/>
@@ -1297,7 +1297,7 @@
     <row r="19" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="27"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6"/>
       <c r="E19" s="4"/>
       <c r="F19" s="2"/>
@@ -1335,7 +1335,7 @@
     <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="35" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="6"/>
@@ -1356,7 +1356,7 @@
     <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="27"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="6"/>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
@@ -1394,7 +1394,7 @@
     <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="35" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="6"/>
@@ -1415,7 +1415,7 @@
     <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="27"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6"/>
       <c r="E25" s="4"/>
       <c r="F25" s="2"/>
@@ -1453,7 +1453,7 @@
     <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="35" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="6"/>
@@ -1474,7 +1474,7 @@
     <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="27"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="6"/>
       <c r="E28" s="4"/>
       <c r="F28" s="2"/>
@@ -1533,7 +1533,7 @@
     <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="36" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="6"/>
@@ -1554,14 +1554,14 @@
     <row r="32" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="37"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="6"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -1592,7 +1592,7 @@
     <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="6"/>
@@ -1613,14 +1613,14 @@
     <row r="35" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="37"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="6"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -1672,7 +1672,7 @@
     <row r="38" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="6"/>
@@ -1691,16 +1691,16 @@
     <row r="39" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="36"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="6"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -1729,7 +1729,7 @@
     <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="34" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="6"/>
@@ -1750,7 +1750,7 @@
     <row r="42" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="36"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="6"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1758,10 +1758,10 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
       <c r="O42" s="2"/>
       <c r="P42" s="12"/>
       <c r="Q42" s="2"/>
@@ -1788,7 +1788,7 @@
     <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="6"/>
@@ -1809,7 +1809,7 @@
     <row r="45" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="36"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="6"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -1817,10 +1817,10 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
       <c r="O45" s="2"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="2"/>
@@ -1847,7 +1847,7 @@
     <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="6"/>
@@ -1868,7 +1868,7 @@
     <row r="48" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="36"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="6"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -1876,10 +1876,10 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
       <c r="O48" s="2"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="2"/>
@@ -1906,7 +1906,7 @@
     <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="34" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="6"/>
@@ -1927,7 +1927,7 @@
     <row r="51" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="36"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="6"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -1935,10 +1935,10 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
       <c r="O51" s="2"/>
       <c r="P51" s="12"/>
       <c r="Q51" s="2"/>
@@ -1965,7 +1965,7 @@
     <row r="53" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="37" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="3"/>
@@ -1986,7 +1986,7 @@
     <row r="54" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="26"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="3"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -1997,8 +1997,8 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
       <c r="P54" s="12"/>
       <c r="Q54" s="2"/>
     </row>
@@ -2080,12 +2080,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C53:C54"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C21:C22"/>
@@ -2093,11 +2092,12 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
